--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.500000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>3.139271368261321e-38</v>
+        <v>3.15283047424878e-38</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>3.109056287800031e-38</v>
+        <v>3.124423179611197e-38</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>3.075762435816513e-38</v>
+        <v>3.091980758597524e-38</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>3.039678336435748e-38</v>
+        <v>3.055893178486681e-38</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>3.001092513782581e-38</v>
+        <v>3.016550406557453e-38</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.960293491981905e-38</v>
+        <v>2.97434241008867e-38</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.917569795158552e-38</v>
+        <v>2.9296591563591e-38</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.873209947437528e-38</v>
+        <v>2.882890612647693e-38</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.827502472943665e-38</v>
+        <v>2.834426746233215e-38</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.780735895801793e-38</v>
+        <v>2.784657524394435e-38</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.733198740136927e-38</v>
+        <v>2.733972914410309e-38</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.685179530073895e-38</v>
+        <v>2.682762883559602e-38</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.636966789737524e-38</v>
+        <v>2.631417399121076e-38</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.588849043252833e-38</v>
+        <v>2.580326428373697e-38</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.541114814744649e-38</v>
+        <v>2.529879938596223e-38</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.494052628337861e-38</v>
+        <v>2.480467897067486e-38</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>2.447951008157302e-38</v>
+        <v>2.432480271066252e-38</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.403098478327984e-38</v>
+        <v>2.386307027871475e-38</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.35977629835555e-38</v>
+        <v>2.342326119452443e-38</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.318119638147247e-38</v>
+        <v>2.300673873036384e-38</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.278128370306416e-38</v>
+        <v>2.261262841012827e-38</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.239797265261995e-38</v>
+        <v>2.223997137035261e-38</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.203121093442976e-38</v>
+        <v>2.188780874757232e-38</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.168094625278307e-38</v>
+        <v>2.155518167832242e-38</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.13471263119707e-38</v>
+        <v>2.124113129913923e-38</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.102969881628213e-38</v>
+        <v>2.094469874655775e-38</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>2.072861147000687e-38</v>
+        <v>2.066492515711308e-38</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>2.044381197743564e-38</v>
+        <v>2.04008516673414e-38</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.017524804285797e-38</v>
+        <v>2.015151941377778e-38</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.992286737056376e-38</v>
+        <v>1.991596953295766e-38</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.968661766484266e-38</v>
+        <v>1.969324316141623e-38</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.946644662998518e-38</v>
+        <v>1.948238143568949e-38</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.926230197028094e-38</v>
+        <v>1.928242549231262e-38</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.907413139001962e-38</v>
+        <v>1.909241646782081e-38</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.890158533230941e-38</v>
+        <v>1.891129148878689e-38</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.874232474862024e-38</v>
+        <v>1.873729157020091e-38</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.859319406028564e-38</v>
+        <v>1.856837202789524e-38</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.845103519909499e-38</v>
+        <v>1.840248730662568e-38</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.831269009683714e-38</v>
+        <v>1.823759185114735e-38</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.817500068530107e-38</v>
+        <v>1.80716401062156e-38</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.803480889627564e-38</v>
+        <v>1.790258651658556e-38</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.788895666155023e-38</v>
+        <v>1.772838552701303e-38</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.773428591291367e-38</v>
+        <v>1.754699158225314e-38</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.756763858215477e-38</v>
+        <v>1.735635912706099e-38</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.738585660106296e-38</v>
+        <v>1.715444260619243e-38</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.718578190142706e-38</v>
+        <v>1.693919646440256e-38</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.696425641503609e-38</v>
+        <v>1.670857514644675e-38</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.671812207367874e-38</v>
+        <v>1.646053309708e-38</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.644422080914465e-38</v>
+        <v>1.619302476105831e-38</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.613968751425227e-38</v>
+        <v>1.590418293203264e-38</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.580542338358697e-38</v>
+        <v>1.55944332538752e-38</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.544494246570506e-38</v>
+        <v>1.526579202441469e-38</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.506181136817023e-38</v>
+        <v>1.492030753836631e-38</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.465959669854607e-38</v>
+        <v>1.456002809044519e-38</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.424186506439777e-38</v>
+        <v>1.418700197536789e-38</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.381218307328894e-38</v>
+        <v>1.380327748784953e-38</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.337411733278368e-38</v>
+        <v>1.341090292260573e-38</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.293123445044556e-38</v>
+        <v>1.301192657435155e-38</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.248710103383985e-38</v>
+        <v>1.260839673780365e-38</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.20452836905301e-38</v>
+        <v>1.220236170767711e-38</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.160934902807986e-38</v>
+        <v>1.179586977868699e-38</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.118279251914944e-38</v>
+        <v>1.139093993513517e-38</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.076736017882059e-38</v>
+        <v>1.098887031510319e-38</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.036298317168812e-38</v>
+        <v>1.059021126596998e-38</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>9.969508443337615e-39</v>
+        <v>1.019547843352717e-38</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>9.586782939356208e-39</v>
+        <v>9.805187463567925e-39</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>9.214653605329488e-39</v>
+        <v>9.419854001883867e-39</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>8.852967386843093e-39</v>
+        <v>9.039993694266637e-39</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>8.501571229484075e-39</v>
+        <v>8.666122186509367e-39</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>8.160312078838061e-39</v>
+        <v>8.298755124403697e-39</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>7.829036880490727e-39</v>
+        <v>7.938408153741291e-39</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>7.507592580029051e-39</v>
+        <v>7.585596920315238e-39</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>7.195826123038696e-39</v>
+        <v>7.240837069917193e-39</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>6.893584455105766e-39</v>
+        <v>6.904644248339295e-39</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>6.600714521815987e-39</v>
+        <v>6.577534101373252e-39</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>6.317063268756241e-39</v>
+        <v>6.260022274812071e-39</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>6.042477641512237e-39</v>
+        <v>5.952624414447445e-39</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>5.776804585669742e-39</v>
+        <v>5.655856166071133e-39</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>5.519891046815556e-39</v>
+        <v>5.370233175476051e-39</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>5.27158397053543e-39</v>
+        <v>5.096271088453937e-39</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>5.031730302415474e-39</v>
+        <v>4.834485550796931e-39</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>4.800176988041492e-39</v>
+        <v>4.58539220829685e-39</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>4.576770973000197e-39</v>
+        <v>4.349506706746486e-39</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>4.361359202877389e-39</v>
+        <v>4.127344691937642e-39</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>4.153788623258904e-39</v>
+        <v>3.91942180966219e-39</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.953906179731393e-39</v>
+        <v>3.726253705712813e-39</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.761558817880685e-39</v>
+        <v>3.548356025881367e-39</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.576840737795995e-39</v>
+        <v>3.386130325649246e-39</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.40113140376887e-39</v>
+        <v>3.239385102776117e-39</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.236226589287848e-39</v>
+        <v>3.107736758033188e-39</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>3.083922281428507e-39</v>
+        <v>2.990801593635574e-39</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.946014467266489e-39</v>
+        <v>2.88819591179847e-39</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.824299133877973e-39</v>
+        <v>2.799536014737465e-39</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.720572268338581e-39</v>
+        <v>2.724438204667734e-39</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.636629857724032e-39</v>
+        <v>2.662518783804525e-39</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.574267889110361e-39</v>
+        <v>2.613394054363319e-39</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.535282349573259e-39</v>
+        <v>2.576680318559347e-39</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.521469226188539e-39</v>
+        <v>2.551993878607928e-39</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.534624506032051e-39</v>
+        <v>2.538951036724372e-39</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.576544176179576e-39</v>
+        <v>2.537168095124033e-39</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.253828782435303e-40</v>
+        <v>1.241845267172223e-40</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.648909589332993e-40</v>
+        <v>1.645902411582608e-40</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.55520303611986e-40</v>
+        <v>1.538287983738962e-40</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.506514447589953e-40</v>
+        <v>1.499827361013644e-40</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.473590977922133e-40</v>
+        <v>1.481726641581323e-40</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.43882074427341e-40</v>
+        <v>1.448354735031015e-40</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.526595596557383e-40</v>
+        <v>1.524648740878592e-40</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.956170153251096e-40</v>
+        <v>1.942813665719887e-40</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.63296179275094e-40</v>
+        <v>2.622372477972991e-40</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>2.865627144976131e-40</v>
+        <v>2.875871738838737e-40</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.929904086407101e-40</v>
+        <v>2.951715818841935e-40</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>2.985590787575719e-40</v>
+        <v>2.993845081506538e-40</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.869683192944972e-40</v>
+        <v>2.84618855626819e-40</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.63478587947614e-40</v>
+        <v>2.607802488355716e-40</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.449086690032221e-40</v>
+        <v>2.492000317061057e-40</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.343944577185236e-40</v>
+        <v>2.434620218165598e-40</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.30147532634379e-40</v>
+        <v>2.344933212009851e-40</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.304453076991438e-40</v>
+        <v>2.328261386795398e-40</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.214049922450268e-40</v>
+        <v>2.220982981689674e-40</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.075913704377755e-40</v>
+        <v>2.060271991057946e-40</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>1.972263881307679e-40</v>
+        <v>1.969041789530714e-40</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.858380028813811e-40</v>
+        <v>1.861295744915439e-40</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.747346974310534e-40</v>
+        <v>1.752208491804453e-40</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.655334076101037e-40</v>
+        <v>1.665410998235192e-40</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.576721119720052e-40</v>
+        <v>1.592178663044303e-40</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.503527368619947e-40</v>
+        <v>1.520281720630567e-40</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.428074305964866e-40</v>
+        <v>1.438436768215474e-40</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.345767036654738e-40</v>
+        <v>1.345016374675059e-40</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.253813417276273e-40</v>
+        <v>1.244038197900296e-40</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.149575224717985e-40</v>
+        <v>1.139568766680409e-40</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.035515996667183e-40</v>
+        <v>1.034814667154643e-40</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>9.207263350597418e-41</v>
+        <v>9.318654406973521e-41</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>8.147397091640888e-41</v>
+        <v>8.327359798465856e-41</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>7.259438699571392e-41</v>
+        <v>7.398934619645528e-41</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>6.551706916767133e-41</v>
+        <v>6.587878293821098e-41</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>6.001885571404508e-41</v>
+        <v>5.960473775334475e-41</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>5.58233475264228e-41</v>
+        <v>5.537913151530636e-41</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>5.254606659607205e-41</v>
+        <v>5.248261815646681e-41</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>4.979814672792901e-41</v>
+        <v>5.010195660667192e-41</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>4.736808046411381e-41</v>
+        <v>4.784282043830766e-41</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.520701993548541e-41</v>
+        <v>4.569507903252651e-41</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>4.327213740379804e-41</v>
+        <v>4.366282109241532e-41</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>4.152060513080849e-41</v>
+        <v>4.175013532106363e-41</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>3.990959537827091e-41</v>
+        <v>3.996111042155824e-41</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>3.839780737701751e-41</v>
+        <v>3.829924654485462e-41</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>3.696491734941708e-41</v>
+        <v>3.675995850915138e-41</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>3.560584322567127e-41</v>
+        <v>3.533278639701961e-41</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>3.431584604192086e-41</v>
+        <v>3.400713804490995e-41</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>3.309018683430679e-41</v>
+        <v>3.277242128927325e-41</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>3.192412663897162e-41</v>
+        <v>3.161804396656197e-41</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>3.081292649205627e-41</v>
+        <v>3.053341391322692e-41</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>2.97518474297022e-41</v>
+        <v>2.950793896571947e-41</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>2.873615048805042e-41</v>
+        <v>2.853102696049056e-41</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>2.776159389101088e-41</v>
+        <v>2.759337865975263e-41</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>2.682639893092518e-41</v>
+        <v>2.669209998053784e-41</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>2.592954823694295e-41</v>
+        <v>2.582627667935843e-41</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>2.507002466110112e-41</v>
+        <v>2.499499509233807e-41</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>2.424681105543536e-41</v>
+        <v>2.419734155559933e-41</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>2.34588902719818e-41</v>
+        <v>2.343240240526513e-41</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>2.27052451627762e-41</v>
+        <v>2.269926397745808e-41</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>2.198485857985536e-41</v>
+        <v>2.199701260830177e-41</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>2.129671337525502e-41</v>
+        <v>2.132473463391879e-41</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>2.063979240101102e-41</v>
+        <v>2.068151639043179e-41</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>2.001307850916004e-41</v>
+        <v>2.006644421396428e-41</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.94155545517379e-41</v>
+        <v>1.94786044406389e-41</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.88462033807807e-41</v>
+        <v>1.891708340657858e-41</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.83040078483243e-41</v>
+        <v>1.8380967447906e-41</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.778795080640531e-41</v>
+        <v>1.786934290074459e-41</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.729701510705958e-41</v>
+        <v>1.738129610121703e-41</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.683018360232302e-41</v>
+        <v>1.691591338544604e-41</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.638643914423214e-41</v>
+        <v>1.647228108955499e-41</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.596476458482285e-41</v>
+        <v>1.604948554966657e-41</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.556414277613125e-41</v>
+        <v>1.564661310190373e-41</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.518355657019327e-41</v>
+        <v>1.526275008238922e-41</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.482198881904538e-41</v>
+        <v>1.489698282724632e-41</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.44784223747235e-41</v>
+        <v>1.45483976725978e-41</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.41518400892636e-41</v>
+        <v>1.421608095456642e-41</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.384122481470206e-41</v>
+        <v>1.389911900927542e-41</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.354555940307486e-41</v>
+        <v>1.359659817284758e-41</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.32638267064181e-41</v>
+        <v>1.330760478140583e-41</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.299500957676777e-41</v>
+        <v>1.303122517107298e-41</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.273809086616021e-41</v>
+        <v>1.276654567797221e-41</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.249205342663141e-41</v>
+        <v>1.251265263822632e-41</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.225588011021749e-41</v>
+        <v>1.226863238795824e-41</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.202855376895444e-41</v>
+        <v>1.203357126329081e-41</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.180905725487856e-41</v>
+        <v>1.180655560034716e-41</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.159637342002589e-41</v>
+        <v>1.158667173525011e-41</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.138948516144927e-41</v>
+        <v>1.137300604316707e-41</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.118753622307087e-41</v>
+        <v>1.116478440691916e-41</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.099019246339553e-41</v>
+        <v>1.096168555606733e-41</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.07972254948062e-41</v>
+        <v>1.076347994390621e-41</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.060840692968608e-41</v>
+        <v>1.056993802373071e-41</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.042350838041813e-41</v>
+        <v>1.038083024883546e-41</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.024230145938537e-41</v>
+        <v>1.019592707251518e-41</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.006455777897076e-41</v>
+        <v>1.001499894806453e-41</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>9.890048951557502e-42</v>
+        <v>9.837816328778373e-42</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>9.718546589528546e-42</v>
+        <v>9.66414966795137e-42</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>9.549822305266924e-42</v>
+        <v>9.493769418878236e-42</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>9.383647711155599e-42</v>
+        <v>9.326446034853622e-42</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>9.219794419577755e-42</v>
+        <v>9.161949969172405e-42</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>9.058034042916349e-42</v>
+        <v>9.000051675129228e-42</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>8.898138193554352e-42</v>
+        <v>8.84052160601875e-42</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>8.739878483874935e-42</v>
+        <v>8.683130215135836e-42</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>8.583026526261063e-42</v>
+        <v>8.527647955775136e-42</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>8.427353933095771e-42</v>
+        <v>8.373845281231375e-42</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>8.272632316762027e-42</v>
+        <v>8.221492644799211e-42</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>8.118633289643e-42</v>
+        <v>8.070360499773502e-42</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>7.965128464121659e-42</v>
+        <v>7.920219299448907e-42</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>7.811889452580967e-42</v>
+        <v>7.770839497120079e-42</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>7.658687867404099e-42</v>
+        <v>7.621991546081878e-42</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>7.505295320974021e-42</v>
+        <v>7.473445899628963e-42</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>7.351483425673766e-42</v>
+        <v>7.324973011056054e-42</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>7.197023793886301e-42</v>
+        <v>7.176343333657813e-42</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>7.041688037994798e-42</v>
+        <v>7.027327320729092e-42</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>6.885292012909003e-42</v>
+        <v>6.877725470369368e-42</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>6.727887955563563e-42</v>
+        <v>6.727498806134425e-42</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>6.569606725037401e-42</v>
+        <v>6.576661743353838e-42</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>6.410579233356703e-42</v>
+        <v>6.425228733313252e-42</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>6.250936392547712e-42</v>
+        <v>6.273214227298375e-42</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>6.090809114636612e-42</v>
+        <v>6.120632676594848e-42</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>5.930328311649799e-42</v>
+        <v>5.967498532488525e-42</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.769624895613451e-42</v>
+        <v>5.813826246265042e-42</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.608829778553748e-42</v>
+        <v>5.659630269210046e-42</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>5.448073872497085e-42</v>
+        <v>5.50492505260938e-42</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>5.287488089469642e-42</v>
+        <v>5.349725047748693e-42</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>5.127203341497672e-42</v>
+        <v>5.19404470591369e-42</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.967350540607352e-42</v>
+        <v>5.037898478390016e-42</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.808060598825077e-42</v>
+        <v>4.881300816463518e-42</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.64946442817703e-42</v>
+        <v>4.724266171419841e-42</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>4.491692940689389e-42</v>
+        <v>4.566808994544622e-42</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>4.334877048388546e-42</v>
+        <v>4.408943737123715e-42</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>4.179147334740105e-42</v>
+        <v>4.250706321815438e-42</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>4.024630893042469e-42</v>
+        <v>4.092360753058507e-42</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>3.871452711996075e-42</v>
+        <v>3.934308570372172e-42</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>3.719737751279523e-42</v>
+        <v>3.77695320986098e-42</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>3.569610970571206e-42</v>
+        <v>3.620698107629259e-42</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>3.421197329549586e-42</v>
+        <v>3.465946699781412e-42</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.274621787893059e-42</v>
+        <v>3.313102422421774e-42</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>3.130009305280219e-42</v>
+        <v>3.162568711654882e-42</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.987484841389462e-42</v>
+        <v>3.01474900358507e-42</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>2.847173355899187e-42</v>
+        <v>2.870046734316677e-42</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.709199808487983e-42</v>
+        <v>2.728865339954235e-42</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.573689158834249e-42</v>
+        <v>2.591608256602079e-42</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.440766366616386e-42</v>
+        <v>2.458678920364552e-42</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.310602703380704e-42</v>
+        <v>2.330498814026675e-42</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>2.183936744392895e-42</v>
+        <v>2.207710485717322e-42</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>2.06188728895851e-42</v>
+        <v>2.091104648217397e-42</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.945580144157485e-42</v>
+        <v>1.981474745077912e-42</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.83614111706991e-42</v>
+        <v>1.879614219850023e-42</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.73469601477572e-42</v>
+        <v>1.786316516084741e-42</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.642370644354903e-42</v>
+        <v>1.702375077333124e-42</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.56029081288741e-42</v>
+        <v>1.6285833471462e-42</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.489582327453303e-42</v>
+        <v>1.565734769075096e-42</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.43137099513253e-42</v>
+        <v>1.514622786670835e-42</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.386782623005061e-42</v>
+        <v>1.476040843484462e-42</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.356943018150923e-42</v>
+        <v>1.450782383067071e-42</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.342977987650082e-42</v>
+        <v>1.439640848969703e-42</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.345884524349679e-42</v>
+        <v>1.443301435210004e-42</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.364827037704247e-42</v>
+        <v>1.460909317340214e-42</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.397606204996234e-42</v>
+        <v>1.490463653364151e-42</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.441990233828492e-42</v>
+        <v>1.529936315266153e-42</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.495747331803891e-42</v>
+        <v>1.577299175030577e-42</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.556645706525229e-42</v>
+        <v>1.630524104641715e-42</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.622453565595372e-42</v>
+        <v>1.687582976083921e-42</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.690939116617167e-42</v>
+        <v>1.746447661341529e-42</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>1.759870567193491e-42</v>
+        <v>1.805090032398899e-42</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>1.827016124927124e-42</v>
+        <v>1.861481961240313e-42</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>1.890143997420945e-42</v>
+        <v>1.91359531985013e-42</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>1.947022392277822e-42</v>
+        <v>1.959401980212705e-42</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>1.99541951710055e-42</v>
+        <v>1.99687381431233e-42</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.033103579492e-42</v>
+        <v>2.023982694133362e-42</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.05806146697298e-42</v>
+        <v>2.03906911509073e-42</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.071340126093427e-42</v>
+        <v>2.045631839840678e-42</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.076238197020577e-42</v>
+        <v>2.050965256324135e-42</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.076116968623568e-42</v>
+        <v>2.062451054233081e-42</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.079933264755754e-42</v>
+        <v>2.087079628377711e-42</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.111145734212252e-42</v>
+        <v>2.130669787754955e-42</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.174542460950726e-42</v>
+        <v>2.189468631343572e-42</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>2.240517935230928e-42</v>
+        <v>2.244391198270581e-42</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>2.280361828717524e-42</v>
+        <v>2.277369051570891e-42</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>2.28869663948673e-42</v>
+        <v>2.284282012311522e-42</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>2.268460300672126e-42</v>
+        <v>2.265980831003871e-42</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.222600942732771e-42</v>
+        <v>2.22332235407435e-42</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.154252131078792e-42</v>
+        <v>2.157413215577268e-42</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.070203973671532e-42</v>
+        <v>2.074285545462152e-42</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>1.980593983503643e-42</v>
+        <v>1.984480550083428e-42</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>1.895683129746869e-42</v>
+        <v>1.898705735761924e-42</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.825732381573073e-42</v>
+        <v>1.827668608818589e-42</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.781002708153997e-42</v>
+        <v>1.782076675574246e-42</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.771755078661423e-42</v>
+        <v>1.772637442349762e-42</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>1.808250462267162e-42</v>
+        <v>1.81005841546603e-42</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.900749828142966e-42</v>
+        <v>1.905047101243887e-42</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.052801264254254e-42</v>
+        <v>2.061226328894591e-42</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>2.190005903805238e-42</v>
+        <v>2.199954846203847e-42</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>2.212989977391196e-42</v>
+        <v>2.216179814055289e-42</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.146932823507118e-42</v>
+        <v>2.136034778691886e-42</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>2.055044439736225e-42</v>
+        <v>2.025776668592581e-42</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>1.971251259889416e-42</v>
+        <v>1.923305478817769e-42</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>1.892158992920058e-42</v>
+        <v>1.830380177895071e-42</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>1.811951698874795e-42</v>
+        <v>1.74641463313222e-42</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>1.724814153458457e-42</v>
+        <v>1.670822839412353e-42</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.628709528594404e-42</v>
+        <v>1.603692340146487e-42</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.534199200203983e-42</v>
+        <v>1.547356473327429e-42</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.454467055438754e-42</v>
+        <v>1.504616073863661e-42</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.402696981450266e-42</v>
+        <v>1.478271976663659e-42</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.390527423746232e-42</v>
+        <v>1.470442025411462e-42</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.408813624153096e-42</v>
+        <v>1.474059151642086e-42</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.433530623704078e-42</v>
+        <v>1.475480143041813e-42</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.44033009188297e-42</v>
+        <v>1.460918876737117e-42</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.410214306198088e-42</v>
+        <v>1.419736954896086e-42</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.347157456708425e-42</v>
+        <v>1.35481019415711e-42</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.261297433548306e-42</v>
+        <v>1.272640472530948e-42</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.16277220222506e-42</v>
+        <v>1.179729712369737e-42</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.061719717872775e-42</v>
+        <v>1.082579834245359e-42</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>9.671510587053089e-43</v>
+        <v>9.874993625692841e-43</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>8.838500173356773e-43</v>
+        <v>9.000713292087178e-43</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>8.156093162239335e-43</v>
+        <v>8.257086772137703e-43</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>7.66221677830175e-43</v>
+        <v>7.698243496345948e-43</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>7.391621022054923e-43</v>
+        <v>7.37448031036308e-43</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>7.329175027881626e-43</v>
+        <v>7.275924349921694e-43</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>7.420116321862096e-43</v>
+        <v>7.344896396128464e-43</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>7.608589113230435e-43</v>
+        <v>7.522398396585582e-43</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>7.838737611220453e-43</v>
+        <v>7.749432298894955e-43</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>8.054706025066226e-43</v>
+        <v>7.96700005065874e-43</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>8.200638564001756e-43</v>
+        <v>8.116103599479031e-43</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>8.220679437261021e-43</v>
+        <v>8.137744892957893e-43</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>8.059207164868159e-43</v>
+        <v>7.973173275307984e-43</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>7.691120407649058e-43</v>
+        <v>7.595862724460292e-43</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>7.151796180159446e-43</v>
+        <v>7.043143175285531e-43</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>6.483731065841147e-43</v>
+        <v>6.359861746178466e-43</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>5.729421648135274e-43</v>
+        <v>5.590865555533125e-43</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>4.931364510483156e-43</v>
+        <v>4.78100172174376e-43</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>4.132056236325762e-43</v>
+        <v>3.975117363204262e-43</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>3.373993409105153e-43</v>
+        <v>3.218059598309618e-43</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.699672612262291e-43</v>
+        <v>2.554675545453705e-43</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.151501109642498e-43</v>
+        <v>2.029714593907715e-43</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.753416259645586e-43</v>
+        <v>1.667717267883058e-43</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.488373080280606e-43</v>
+        <v>1.448383223876481e-43</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.333816338227689e-43</v>
+        <v>1.345383071518184e-43</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.267190800166955e-43</v>
+        <v>1.332387420438379e-43</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.265941232778588e-43</v>
+        <v>1.383066880267269e-43</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.30751240274267e-43</v>
+        <v>1.471092060635031e-43</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.369349076739364e-43</v>
+        <v>1.57013357117191e-43</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.428896021448738e-43</v>
+        <v>1.653862021508007e-43</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.464735635230215e-43</v>
+        <v>1.697339406911373e-43</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.472752656406078e-43</v>
+        <v>1.696789428818663e-43</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.462295872358044e-43</v>
+        <v>1.66490305555916e-43</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.443068873281664e-43</v>
+        <v>1.614805198669296e-43</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.424775249372475e-43</v>
+        <v>1.559620769685463e-43</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.417118590826015e-43</v>
+        <v>1.512474680144039e-43</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.429802487837834e-43</v>
+        <v>1.486491841581473e-43</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>1.472530530603463e-43</v>
+        <v>1.494797165534138e-43</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>1.55500630931844e-43</v>
+        <v>1.550515563538432e-43</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>1.683715484262798e-43</v>
+        <v>1.662706949192842e-43</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.851872765396806e-43</v>
+        <v>1.823666922670797e-43</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.049272241186062e-43</v>
+        <v>2.02137003934752e-43</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.265707996594404e-43</v>
+        <v>2.243790850174726e-43</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>2.490974116585773e-43</v>
+        <v>2.478903906104231e-43</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>2.714864686123801e-43</v>
+        <v>2.714683758087529e-43</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>2.927173790172428e-43</v>
+        <v>2.939104957076438e-43</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>3.117695513695571e-43</v>
+        <v>3.140142054022751e-43</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.276299912469505e-43</v>
+        <v>3.305849783061556e-43</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.407105542771886e-43</v>
+        <v>3.439321418681844e-43</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>3.545154214888812e-43</v>
+        <v>3.576288098089106e-43</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.729540699940422e-43</v>
+        <v>3.756758644765349e-43</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>3.999359769047019e-43</v>
+        <v>4.020741882192744e-43</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>4.39370619332885e-43</v>
+        <v>4.408246633853397e-43</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>4.951674743906452e-43</v>
+        <v>4.959281723229716e-43</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>5.712360191899588e-43</v>
+        <v>5.713855973803332e-43</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>6.714857308428712e-43</v>
+        <v>6.711978209056563e-43</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>7.997365792929554e-43</v>
+        <v>7.99275262143752e-43</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>9.5479447109809e-43</v>
+        <v>9.544607268470039e-43</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.127891780575211e-42</v>
+        <v>1.127942603338805e-42</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.309632029509953e-42</v>
+        <v>1.310273711277527e-42</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.490618739687967e-42</v>
+        <v>1.492006870321558e-42</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.661455432894654e-42</v>
+        <v>1.663694900129036e-42</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.812745630915669e-42</v>
+        <v>1.815890620358351e-42</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.935092855536627e-42</v>
+        <v>1.939146850667859e-42</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>2.019100628542986e-42</v>
+        <v>2.02401641071575e-42</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>2.057387699827259e-42</v>
+        <v>2.063073937863695e-42</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>2.053119714817015e-42</v>
+        <v>2.059475452312775e-42</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>2.012901090447974e-42</v>
+        <v>2.019826990214641e-42</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.943338136126492e-42</v>
+        <v>1.950736486379775e-42</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.851037161258877e-42</v>
+        <v>1.858811875618611e-42</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.742604475251449e-42</v>
+        <v>1.750661092741592e-42</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.624646387510469e-42</v>
+        <v>1.632892072559106e-42</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.503769207442365e-42</v>
+        <v>1.512112749881705e-42</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.386579143702177e-42</v>
+        <v>1.394930958857618e-42</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.278331998192861e-42</v>
+        <v>1.286605320642469e-42</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.17954779860271e-42</v>
+        <v>1.187662868601304e-42</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.089709011746848e-42</v>
+        <v>1.097593992429746e-42</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.008298104440451e-42</v>
+        <v>1.015889081823468e-42</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>9.347975434986632e-43</v>
+        <v>9.420385264781103e-43</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>8.686897957367276e-43</v>
+        <v>8.755327160894128e-43</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>8.09457327969785e-43</v>
+        <v>8.158620403530131e-43</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>7.565826070130114e-43</v>
+        <v>7.625168889645846e-43</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>7.095480996815628e-43</v>
+        <v>7.149876516197794e-43</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>6.678362727906575e-43</v>
+        <v>6.727647180143137e-43</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>6.309295931554485e-43</v>
+        <v>6.35338477843837e-43</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>5.983105275910987e-43</v>
+        <v>6.021993208040087e-43</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>5.694615429128127e-43</v>
+        <v>5.728376365905312e-43</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>5.438651059357513e-43</v>
+        <v>5.467438148990616e-43</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>5.210036834750805e-43</v>
+        <v>5.234082454252629e-43</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>5.00359742345997e-43</v>
+        <v>5.023213178648287e-43</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>4.814157493636656e-43</v>
+        <v>4.829734219134209e-43</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>4.636989511237437e-43</v>
+        <v>4.648987234943028e-43</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>4.470357336790022e-43</v>
+        <v>4.479238240186998e-43</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>4.31375049269275e-43</v>
+        <v>4.319951442726111e-43</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>4.166662204227994e-43</v>
+        <v>4.170594670319614e-43</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>4.028585696678206e-43</v>
+        <v>4.030635750726831e-43</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>3.899014195325778e-43</v>
+        <v>3.899542511707032e-43</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>3.777440925453279e-43</v>
+        <v>3.776782781019656e-43</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>3.663359112343094e-43</v>
+        <v>3.661824386423967e-43</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>3.556261981277632e-43</v>
+        <v>3.554135155679243e-43</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>3.455642757539436e-43</v>
+        <v>3.453182916544903e-43</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>3.360994666410908e-43</v>
+        <v>3.358435496780223e-43</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>3.271810933174457e-43</v>
+        <v>3.269360724144489e-43</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>3.187584783112617e-43</v>
+        <v>3.185426426397104e-43</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>3.107809441507794e-43</v>
+        <v>3.106100431297351e-43</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>3.031978133642405e-43</v>
+        <v>3.030850566604522e-43</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.959584084799001e-43</v>
+        <v>2.959144660078038e-43</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>2.890120520259901e-43</v>
+        <v>2.890450539477097e-43</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>2.823080665307622e-43</v>
+        <v>2.824236032561086e-43</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>2.757957745224671e-43</v>
+        <v>2.759968967089389e-43</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>2.69424498529338e-43</v>
+        <v>2.69711717082121e-43</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>2.631435610796315e-43</v>
+        <v>2.63514847151599e-43</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.569022847015812e-43</v>
+        <v>2.573530696932939e-43</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.506499919234378e-43</v>
+        <v>2.511731674831439e-43</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.443360052734519e-43</v>
+        <v>2.449219232970868e-43</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.379096472798572e-43</v>
+        <v>2.385461199110439e-43</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.313202404709044e-43</v>
+        <v>2.31992540100953e-43</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.245212289573678e-43</v>
+        <v>2.252122890311595e-43</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.175141117402228e-43</v>
+        <v>2.182068680182412e-43</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.103314582945e-43</v>
+        <v>2.110103626242884e-43</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.030063589693613e-43</v>
+        <v>2.036574046628115e-43</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.955719041139486e-43</v>
+        <v>1.961826259473005e-43</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.880611840774236e-43</v>
+        <v>1.88620658291266e-43</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.805072892089486e-43</v>
+        <v>1.810061335082185e-43</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.72943309857665e-43</v>
+        <v>1.733736834116478e-43</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.65402336372735e-43</v>
+        <v>1.657579398150645e-43</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.579174591033205e-43</v>
+        <v>1.58193534531979e-43</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.505217683985633e-43</v>
+        <v>1.507150993758814e-43</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.432483546076318e-43</v>
+        <v>1.433572661602887e-43</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.361303080796681e-43</v>
+        <v>1.361546666986914e-43</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.292007191638343e-43</v>
+        <v>1.291419328045998e-43</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.224926782092913e-43</v>
+        <v>1.223536962915235e-43</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.160392755651824e-43</v>
+        <v>1.15824588972954e-43</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.09873601580669e-43</v>
+        <v>1.095892426624013e-43</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.040280794056779e-43</v>
+        <v>1.036815922614161e-43</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>9.851585475892065e-44</v>
+        <v>9.81154367486395e-44</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>9.332831986670601e-44</v>
+        <v>9.288185285091566e-44</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>8.845570227594617e-44</v>
+        <v>8.797070074842947e-44</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>8.388822953354021e-44</v>
+        <v>8.337184062135274e-44</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>7.961612918640429e-44</v>
+        <v>7.90751326498744e-44</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>7.562962878143868e-44</v>
+        <v>7.507043701416741e-44</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>7.191895586555525e-44</v>
+        <v>7.134761389441636e-44</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>6.847433798566489e-44</v>
+        <v>6.789652347080494e-44</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>6.528600268866934e-44</v>
+        <v>6.470702592350756e-44</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>6.234417752147971e-44</v>
+        <v>6.176898143270807e-44</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>5.963909003100625e-44</v>
+        <v>5.907225017858949e-44</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>5.716096776415204e-44</v>
+        <v>5.660669234132758e-44</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>5.490003826782749e-44</v>
+        <v>5.436216810110552e-44</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>5.284652908894232e-44</v>
+        <v>5.232853763810573e-44</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>5.099066777440072e-44</v>
+        <v>5.049566113250516e-44</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>4.932268187111256e-44</v>
+        <v>4.885339876448638e-44</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>4.783279892598701e-44</v>
+        <v>4.73916107142313e-44</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>4.651124648592932e-44</v>
+        <v>4.610015716191793e-44</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>4.534825209784979e-44</v>
+        <v>4.496889828772925e-44</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>4.433404330865426e-44</v>
+        <v>4.398769427184389e-44</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>4.345884766525174e-44</v>
+        <v>4.314640529444357e-44</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>4.271289271455079e-44</v>
+        <v>4.243489153570954e-44</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>4.208640600345798e-44</v>
+        <v>4.184301317582116e-44</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>4.156961507888196e-44</v>
+        <v>4.136063039495977e-44</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>4.115274748773093e-44</v>
+        <v>4.097760337330631e-44</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>4.082603077691212e-44</v>
+        <v>4.068379229104077e-44</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>4.057969249333384e-44</v>
+        <v>4.046905732834416e-44</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>4.040396018390413e-44</v>
+        <v>4.032325866539723e-44</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>4.028906139553061e-44</v>
+        <v>4.023625648238039e-44</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>4.022522367512135e-44</v>
+        <v>4.019791095947441e-44</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>4.020267456958429e-44</v>
+        <v>4.019808227685993e-44</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>4.021164162582733e-44</v>
+        <v>4.022663061471764e-44</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>4.024235239075837e-44</v>
+        <v>4.027341615322813e-44</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>4.028503441128536e-44</v>
+        <v>4.032829907257212e-44</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>4.033060785224168e-44</v>
+        <v>4.038186210701066e-44</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>4.038057459080578e-44</v>
+        <v>4.043572706321689e-44</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>4.044469533315033e-44</v>
+        <v>4.050013153785449e-44</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>4.053294986249785e-44</v>
+        <v>4.058554167352926e-44</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>4.065531796207076e-44</v>
+        <v>4.070242361284693e-44</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>4.082177941509185e-44</v>
+        <v>4.086124349841352e-44</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>4.10423140047836e-44</v>
+        <v>4.107246747283482e-44</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>4.132690151436827e-44</v>
+        <v>4.134656167871641e-44</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>4.168552172706896e-44</v>
+        <v>4.16939922586646e-44</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>4.212815442610756e-44</v>
+        <v>4.212522535528462e-44</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>4.26647793947074e-44</v>
+        <v>4.265072711118305e-44</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>4.330537641609071e-44</v>
+        <v>4.328096366896541e-44</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>4.405992527347932e-44</v>
+        <v>4.402640117123683e-44</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>4.493840575009715e-44</v>
+        <v>4.48975057606045e-44</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>4.595079762916615e-44</v>
+        <v>4.590474357967362e-44</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>4.710708069390773e-44</v>
+        <v>4.705858077104897e-44</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>4.841723472754659e-44</v>
+        <v>4.836948347733843e-44</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>4.989123951330429e-44</v>
+        <v>4.984791784114692e-44</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>5.153907483440181e-44</v>
+        <v>5.150435000507866e-44</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>5.337072047406473e-44</v>
+        <v>5.334924611174252e-44</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>5.539615621551418e-44</v>
+        <v>5.539307230374294e-44</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>5.762536184197064e-44</v>
+        <v>5.764629472368363e-44</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>6.006167310123231e-44</v>
+        <v>6.011262578250809e-44</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>6.263697517051972e-44</v>
+        <v>6.272314763710762e-44</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>6.523966275673108e-44</v>
+        <v>6.536473392535376e-44</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>6.775751432554532e-44</v>
+        <v>6.792363186945822e-44</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>7.007830834263243e-44</v>
+        <v>7.028608869162357e-44</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>7.208982327367086e-44</v>
+        <v>7.233835161406103e-44</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>7.367983758433272e-44</v>
+        <v>7.39666678589753e-44</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>7.473612974029146e-44</v>
+        <v>7.505728464857256e-44</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>7.514647820722337e-44</v>
+        <v>7.549644920506181e-44</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>7.479866145080145e-44</v>
+        <v>7.517040875064867e-44</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>7.358045793670145e-44</v>
+        <v>7.39654105075416e-44</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>7.13796461305955e-44</v>
+        <v>7.176770169794542e-44</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>6.80840044981585e-44</v>
+        <v>6.846352954406772e-44</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>6.362146467130706e-44</v>
+        <v>6.397967476104011e-44</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>5.819596267141558e-44</v>
+        <v>5.852153673878964e-44</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>5.21274622794329e-44</v>
+        <v>5.241164162988506e-44</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.573632879730602e-44</v>
+        <v>4.597292091105912e-44</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.934292752699842e-44</v>
+        <v>3.952830605906114e-44</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>3.326762377047351e-44</v>
+        <v>3.340072855064044e-44</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.783078282967827e-44</v>
+        <v>2.791311986252974e-44</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.33527700065766e-44</v>
+        <v>2.338841147147879e-44</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.015395060312888e-44</v>
+        <v>2.014953485423387e-44</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.84821177958082e-44</v>
+        <v>1.844635652809501e-44</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.825364778255547e-44</v>
+        <v>1.819507539440602e-44</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.929036410145124e-44</v>
+        <v>1.921669559189581e-44</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.141408315558672e-44</v>
+        <v>2.133221407585048e-44</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>2.444662134804763e-44</v>
+        <v>2.436262780155071e-44</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.820979508192881e-44</v>
+        <v>2.812893372428626e-44</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>3.25254207603171e-44</v>
+        <v>3.245212879933889e-44</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>3.721531478629739e-44</v>
+        <v>3.715320998198841e-44</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>4.210129356296748e-44</v>
+        <v>4.205317422752759e-44</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>4.70051734934125e-44</v>
+        <v>4.697301849123644e-44</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>5.17487709807175e-44</v>
+        <v>5.173373972839496e-44</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>5.615390242798041e-44</v>
+        <v>5.615633489429601e-44</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>6.004238423828601e-44</v>
+        <v>6.006180094421931e-44</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>6.323603281472109e-44</v>
+        <v>6.327113483344657e-44</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>6.555666456038069e-44</v>
+        <v>6.560533351726774e-44</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>6.682609587835085e-44</v>
+        <v>6.688539395096382e-44</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>6.686614317172128e-44</v>
+        <v>6.693231308981945e-44</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>6.553655288132497e-44</v>
+        <v>6.560516403599396e-44</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>6.295135718990189e-44</v>
+        <v>6.301828515983692e-44</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>5.932911204085754e-44</v>
+        <v>5.939094122512617e-44</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>5.488869470478921e-44</v>
+        <v>5.494271956060586e-44</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>4.984898245230851e-44</v>
+        <v>4.989320749503456e-44</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>4.442885255401014e-44</v>
+        <v>4.44619923571539e-44</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>3.884718228050243e-44</v>
+        <v>3.886866147571912e-44</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>3.332284890239424e-44</v>
+        <v>3.333280217948601e-44</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>2.807472969027947e-44</v>
+        <v>2.80740017971954e-44</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.332170191476713e-44</v>
+        <v>2.331184765760323e-44</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.928249045427872e-44</v>
+        <v>1.926577418165057e-44</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.609141117664551e-44</v>
+        <v>1.607052117714911e-44</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.365834696823539e-44</v>
+        <v>1.363563608908582e-44</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.185629218586538e-44</v>
+        <v>1.183365301852403e-44</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>1.055824118634794e-44</v>
+        <v>1.053710606652259e-44</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>9.637188326501307e-45</v>
+        <v>9.61852933414608e-45</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>8.966127963139541e-45</v>
+        <v>8.950456922454922e-45</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>8.418471962388341e-45</v>
+        <v>8.405841998143344e-45</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>7.909110371819322e-45</v>
+        <v>7.899270524858449e-45</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>7.429034751823896e-45</v>
+        <v>7.421713657704318e-45</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>6.977388949676e-45</v>
+        <v>6.972325227414713e-45</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>6.553316812649469e-45</v>
+        <v>6.550259064723306e-45</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>6.155962188017008e-45</v>
+        <v>6.15466900036263e-45</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>5.784468923052478e-45</v>
+        <v>5.784708865066384e-45</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>5.437980865029646e-45</v>
+        <v>5.439532489568162e-45</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>5.115641861221356e-45</v>
+        <v>5.11829370460064e-45</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>4.816595758901394e-45</v>
+        <v>4.82014634089744e-45</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>4.53998640534347e-45</v>
+        <v>4.544244229192101e-45</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>4.284957647820551e-45</v>
+        <v>4.289741200217425e-45</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>4.050653333606362e-45</v>
+        <v>4.055791084706965e-45</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>3.836217309974557e-45</v>
+        <v>3.841547713394209e-45</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>3.640793424198213e-45</v>
+        <v>3.646164917012067e-45</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>3.463525523551154e-45</v>
+        <v>3.468796526294194e-45</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>3.303557455306523e-45</v>
+        <v>3.308596371973566e-45</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>3.160033066737959e-45</v>
+        <v>3.164718284783652e-45</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>3.032096205119034e-45</v>
+        <v>3.036316095457859e-45</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.918890717722986e-45</v>
+        <v>2.922543634729256e-45</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.819560451823404e-45</v>
+        <v>2.822554733331262e-45</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.733249254693825e-45</v>
+        <v>2.735503221997249e-45</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.659100973607562e-45</v>
+        <v>2.66054293146036e-45</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.596259455838165e-45</v>
+        <v>2.596827692453979e-45</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.543868548659142e-45</v>
+        <v>2.543511335711446e-45</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.501072099343867e-45</v>
+        <v>2.499747691965965e-45</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.467013955165884e-45</v>
+        <v>2.464690591950914e-45</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.440837963398602e-45</v>
+        <v>2.437493866399532e-45</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.421687971315518e-45</v>
+        <v>2.41731134604515e-45</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.40870782619011e-45</v>
+        <v>2.403296861621078e-45</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.401041375295821e-45</v>
+        <v>2.394604243860591e-45</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.397832465906131e-45</v>
+        <v>2.390387323497e-45</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.398224945294507e-45</v>
+        <v>2.389799931263605e-45</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.401362660734416e-45</v>
+        <v>2.391995897893705e-45</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.406389459499324e-45</v>
+        <v>2.396129054120598e-45</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.412449188862694e-45</v>
+        <v>2.401353230677579e-45</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.418685696098003e-45</v>
+        <v>2.406822258297957e-45</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.424242828478709e-45</v>
+        <v>2.411689967715023e-45</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.428264433278287e-45</v>
+        <v>2.415110189662082e-45</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.429894357770201e-45</v>
+        <v>2.416236754872432e-45</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.428276673735522e-45</v>
+        <v>2.414223715173375e-45</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.422790309532215e-45</v>
+        <v>2.408456408014042e-45</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.413493692998264e-45</v>
+        <v>2.398989338647365e-45</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.400567427386423e-45</v>
+        <v>2.385997330084253e-45</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.384192115949416e-45</v>
+        <v>2.369655205335581e-45</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.364548361939997e-45</v>
+        <v>2.350137787412255e-45</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.341816768610931e-45</v>
+        <v>2.327619899325193e-45</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.316177939214922e-45</v>
+        <v>2.302276364085253e-45</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.287812477004734e-45</v>
+        <v>2.27428200470335e-45</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.25690098523314e-45</v>
+        <v>2.243811644190409e-45</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.223624067152828e-45</v>
+        <v>2.211040105557273e-45</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.188162326016569e-45</v>
+        <v>2.176142211814865e-45</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.150696365077142e-45</v>
+        <v>2.139292785974117e-45</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.111406787587224e-45</v>
+        <v>2.100666651045857e-45</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.070474196799631e-45</v>
+        <v>2.060438630041053e-45</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.028079195967032e-45</v>
+        <v>2.01878354597053e-45</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.984402388342208e-45</v>
+        <v>1.97587622184522e-45</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.939624377177945e-45</v>
+        <v>1.931891480676059e-45</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.893925765726904e-45</v>
+        <v>1.887004145473866e-45</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.847487157241873e-45</v>
+        <v>1.841389039249576e-45</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>1.800489154975634e-45</v>
+        <v>1.795220985014128e-45</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.753112362180852e-45</v>
+        <v>1.748674805778337e-45</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.70553738211031e-45</v>
+        <v>1.70192532455314e-45</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.657944818016796e-45</v>
+        <v>1.655147364349477e-45</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.610515273152968e-45</v>
+        <v>1.60851574817816e-45</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.563429350771657e-45</v>
+        <v>1.56220529905017e-45</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.516867654125521e-45</v>
+        <v>1.51639083997632e-45</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.471010786467348e-45</v>
+        <v>1.471247193967549e-45</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.426039351049921e-45</v>
+        <v>1.426949184034794e-45</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.382133951125905e-45</v>
+        <v>1.383671633188871e-45</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.339475189948084e-45</v>
+        <v>1.341589364440719e-45</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.298243670769239e-45</v>
+        <v>1.30087720080127e-45</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.25861999684204e-45</v>
+        <v>1.261709965281347e-45</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.22078477141927e-45</v>
+        <v>1.224262480891886e-45</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.184918597753704e-45</v>
+        <v>1.188709570643813e-45</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.151202079098022e-45</v>
+        <v>1.155226057547962e-45</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.119815818705028e-45</v>
+        <v>1.12398676461529e-45</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.09094041982741e-45</v>
+        <v>1.095166514856638e-45</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.064756482961668e-45</v>
+        <v>1.068940128634491e-45</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.041365501384646e-45</v>
+        <v>1.045406414041665e-45</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.020582983212555e-45</v>
+        <v>1.024389382745981e-45</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.00215983162846e-45</v>
+        <v>1.005650969052131e-45</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>9.85846949815493e-46</v>
+        <v>9.889531072648765e-46</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>9.713952409567253e-46</v>
+        <v>9.740577316889152e-46</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>9.585556082352718e-46</v>
+        <v>9.607267766289912e-46</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>9.47078954834243e-46</v>
+        <v>9.487221763898432e-46</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>9.367161839367175e-46</v>
+        <v>9.378058652761769e-46</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>9.272181987258068e-46</v>
+        <v>9.277397775927321e-46</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>9.183359023846184e-46</v>
+        <v>9.18285847644245e-46</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>9.098201980962359e-46</v>
+        <v>9.092060097354265e-46</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>9.014219890437678e-46</v>
+        <v>9.002621981710131e-46</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>8.92892178410322e-46</v>
+        <v>8.912163472557417e-46</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>8.83981669378983e-46</v>
+        <v>8.818303912943235e-46</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>8.744413651328672e-46</v>
+        <v>8.71866264591504e-46</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>8.640221688550574e-46</v>
+        <v>8.610859014519933e-46</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>8.524749837286619e-46</v>
+        <v>8.492512361805277e-46</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>8.395639091672103e-46</v>
+        <v>8.361368199957429e-46</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>8.252847257826902e-46</v>
+        <v>8.21738714474869e-46</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>8.098308683985919e-46</v>
+        <v>8.062419583566869e-46</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>7.934021087994837e-46</v>
+        <v>7.898376491474988e-46</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>7.761982187698882e-46</v>
+        <v>7.727168843535621e-46</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>7.584189700943712e-46</v>
+        <v>7.550707614811777e-46</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>7.40264134557502e-46</v>
+        <v>7.370903780366485e-46</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>7.219334839438004e-46</v>
+        <v>7.189668315262292e-46</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>7.036267900378509e-46</v>
+        <v>7.008912194562389e-46</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>6.855438246241727e-46</v>
+        <v>6.830546393329312e-46</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>6.67884359487335e-46</v>
+        <v>6.656481886626101e-46</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>6.508481664119046e-46</v>
+        <v>6.488629649515764e-46</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>6.346350171824032e-46</v>
+        <v>6.32890065706087e-46</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>6.194446835833991e-46</v>
+        <v>6.179205884324441e-46</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>6.054761806718384e-46</v>
+        <v>6.04144889277054e-46</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>5.927986227348968e-46</v>
+        <v>5.91626061658696e-46</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>5.812050220680775e-46</v>
+        <v>5.801567041205213e-46</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>5.70453070947604e-46</v>
+        <v>5.694948124700597e-46</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>5.60300461649671e-46</v>
+        <v>5.593983825148128e-46</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>5.505048864505117e-46</v>
+        <v>5.4962541006232e-46</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>5.408240376263225e-46</v>
+        <v>5.399338909200846e-46</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>5.310156074533265e-46</v>
+        <v>5.300818208956361e-46</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>5.20837288207738e-46</v>
+        <v>5.198271957964951e-46</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>5.10056307471524e-46</v>
+        <v>5.089380419466598e-46</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>4.987400961859679e-46</v>
+        <v>4.974981799215454e-46</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>4.873095763811941e-46</v>
+        <v>4.85963279745676e-46</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>4.762059522169546e-46</v>
+        <v>4.748103469141644e-46</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>4.658704278530326e-46</v>
+        <v>4.645163869221553e-46</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>4.567442074492087e-46</v>
+        <v>4.5555840526479e-46</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>4.492684951652393e-46</v>
+        <v>4.484134074371866e-46</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>4.438338960419995e-46</v>
+        <v>4.435032781321502e-46</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>4.399759293374449e-46</v>
+        <v>4.403184033239186e-46</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>4.365178599257657e-46</v>
+        <v>4.375732654937459e-46</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>4.322612193009572e-46</v>
+        <v>4.339586715850524e-46</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>4.260075389570169e-46</v>
+        <v>4.281654285412611e-46</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>4.169100537241162e-46</v>
+        <v>4.192639110477701e-46</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>4.056956653154092e-46</v>
+        <v>4.080228376040791e-46</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>3.935312371179577e-46</v>
+        <v>3.95685745234122e-46</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>3.815836530271532e-46</v>
+        <v>3.834961930949735e-46</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>3.70824235567979e-46</v>
+        <v>3.724908606524779e-46</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>3.613524840056144e-46</v>
+        <v>3.627841464208789e-46</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>3.530250408939492e-46</v>
+        <v>3.542335366145097e-46</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>3.456985385028971e-46</v>
+        <v>3.466965065685319e-46</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>3.392296091023525e-46</v>
+        <v>3.400305316180867e-46</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>3.334748849622298e-46</v>
+        <v>3.340930870983367e-46</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>3.282909983524407e-46</v>
+        <v>3.28741648344441e-46</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.235345815428838e-46</v>
+        <v>3.238336906915454e-46</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.190622668034751e-46</v>
+        <v>3.192266894748137e-46</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.147306864041142e-46</v>
+        <v>3.147781200293929e-46</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.103964726147127e-46</v>
+        <v>3.103454576904421e-46</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.059162577051779e-46</v>
+        <v>3.057861777931163e-46</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>3.011466739454219e-46</v>
+        <v>3.00957755672575e-46</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.959492055230577e-46</v>
+        <v>2.95722466770151e-46</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.903025011976994e-46</v>
+        <v>2.900584999494634e-46</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.843055551937267e-46</v>
+        <v>2.840631044218056e-46</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.780628499749123e-46</v>
+        <v>2.778389590313329e-46</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.716788680050296e-46</v>
+        <v>2.71488742622201e-46</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>2.652580917478346e-46</v>
+        <v>2.651151340385487e-46</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>2.589050036671009e-46</v>
+        <v>2.588208121245318e-46</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>2.527240862266013e-46</v>
+        <v>2.52708455724306e-46</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>2.468198218900923e-46</v>
+        <v>2.468807436820102e-46</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>2.412966931213473e-46</v>
+        <v>2.414403548418004e-46</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>2.362591823841383e-46</v>
+        <v>2.364899680478308e-46</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>2.318117721422237e-46</v>
+        <v>2.321322621442427e-46</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>2.280589448593789e-46</v>
+        <v>2.28469915975194e-46</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>2.250818719931562e-46</v>
+        <v>2.25581856032529e-46</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>2.228296687181215e-46</v>
+        <v>2.234124523102404e-46</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>2.212050022730142e-46</v>
+        <v>2.218587474700964e-46</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>2.201104885624864e-46</v>
+        <v>2.208177318678729e-46</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>2.19448743491195e-46</v>
+        <v>2.2018639585935e-46</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>2.191223829637952e-46</v>
+        <v>2.198617298003064e-46</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>2.190340228849415e-46</v>
+        <v>2.197407240465201e-46</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>2.190862791592895e-46</v>
+        <v>2.1972036895377e-46</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>2.191817713913774e-46</v>
+        <v>2.196976586925197e-46</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>2.198910224790065e-46</v>
+        <v>2.202582147562422e-46</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>2.243156845563708e-46</v>
+        <v>2.245973249895594e-46</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>2.36123093846044e-46</v>
+        <v>2.364933899771998e-46</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>2.567957062887111e-46</v>
+        <v>2.574641435565012e-46</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.843361930605064e-46</v>
+        <v>2.854268322655623e-46</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>3.164367221803388e-46</v>
+        <v>3.179774291300052e-46</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>3.507894616670432e-46</v>
+        <v>3.527119071753768e-46</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.85086579539447e-46</v>
+        <v>3.872262394272168e-46</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>4.17023482675292e-46</v>
+        <v>4.191209889666076e-46</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>4.445020864928053e-46</v>
+        <v>4.462893792540716e-46</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>4.657515999849967e-46</v>
+        <v>4.670884686188765e-46</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>4.790302457418958e-46</v>
+        <v>4.799164329648292e-46</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>4.825962463534717e-46</v>
+        <v>4.831714481956783e-46</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>4.750511131578943e-46</v>
+        <v>4.75579674766667e-46</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>4.583292364640304e-46</v>
+        <v>4.590515686280766e-46</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>4.362391908561365e-46</v>
+        <v>4.372882167724376e-46</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>4.126104369605744e-46</v>
+        <v>4.140106611112483e-46</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>3.912724354036406e-46</v>
+        <v>3.929399435559416e-46</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.757224897570769e-46</v>
+        <v>3.774736300056037e-46</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.657214686044563e-46</v>
+        <v>3.673705044222829e-46</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>3.586776449636724e-46</v>
+        <v>3.600982411202879e-46</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>3.519626075832321e-46</v>
+        <v>3.530887889009084e-46</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>3.429479452116267e-46</v>
+        <v>3.437740965654173e-46</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>3.290427947848921e-46</v>
+        <v>3.296230090144149e-46</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>3.093783639262012e-46</v>
+        <v>3.097965351456145e-46</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.854877601642845e-46</v>
+        <v>2.858158706801903e-46</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.590823414156287e-46</v>
+        <v>2.593773661055449e-46</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.318734655967291e-46</v>
+        <v>2.321773719090904e-46</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.055724906240069e-46</v>
+        <v>2.059122385781634e-46</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.818907744139772e-46</v>
+        <v>1.822783166001957e-46</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.625122262470808e-46</v>
+        <v>1.629447061503076e-46</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.481624367464944e-46</v>
+        <v>1.486291128559185e-46</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.383816010553826e-46</v>
+        <v>1.388724116650014e-46</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.326364055542562e-46</v>
+        <v>1.331424998834194e-46</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.303935366236536e-46</v>
+        <v>1.309072748170629e-46</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.311196806441011e-46</v>
+        <v>1.316346337718104e-46</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.342815239961281e-46</v>
+        <v>1.347924740535436e-46</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.393457530602632e-46</v>
+        <v>1.39848692968143e-46</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.457790542170279e-46</v>
+        <v>1.462711878214824e-46</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.530481138469621e-46</v>
+        <v>1.53527855919454e-46</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.606196183305817e-46</v>
+        <v>1.610865945679255e-46</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.679602540484284e-46</v>
+        <v>1.684153010727912e-46</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.745367073810235e-46</v>
+        <v>1.749818727399242e-46</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.798252832838301e-46</v>
+        <v>1.802637802209117e-46</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.835632002059145e-46</v>
+        <v>1.83998180772761e-46</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.857727505838577e-46</v>
+        <v>1.862059651424146e-46</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.864906894111296e-46</v>
+        <v>1.869224186267183e-46</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.857537716812051e-46</v>
+        <v>1.861828265225233e-46</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.835987523875567e-46</v>
+        <v>1.840224741266781e-46</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.800623865236621e-46</v>
+        <v>1.804766467360365e-46</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.751814290829887e-46</v>
+        <v>1.755806296474421e-46</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.689927388582466e-46</v>
+        <v>1.693698129159676e-46</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.616157012227953e-46</v>
+        <v>1.619628756288129e-46</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.534005092827347e-46</v>
+        <v>1.537114370061179e-46</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.447373972222915e-46</v>
+        <v>1.45007527280041e-46</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.360165992256938e-46</v>
+        <v>1.362431766827423e-46</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.27628349477146e-46</v>
+        <v>1.278104154463577e-46</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.199628821608826e-46</v>
+        <v>1.20101273803054e-46</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.134104314611102e-46</v>
+        <v>1.135077819849691e-46</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.083612315620561e-46</v>
+        <v>1.084219702242626e-46</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.052055166479427e-46</v>
+        <v>1.052358687530885e-46</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.043335209029844e-46</v>
+        <v>1.043415078035931e-46</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.061354785114052e-46</v>
+        <v>1.061309176079323e-46</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.110016236574196e-46</v>
+        <v>1.109961283982523e-46</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.193221905252566e-46</v>
+        <v>1.19329170406714e-46</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.313932753925559e-46</v>
+        <v>1.314275774936337e-46</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.463330190255451e-46</v>
+        <v>1.464064425021437e-46</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.624579124048159e-46</v>
+        <v>1.625761559086329e-46</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.780690818945437e-46</v>
+        <v>1.782316850665555e-46</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.914676538589592e-46</v>
+        <v>1.916679973294211e-46</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>2.00954754662249e-46</v>
+        <v>2.011800600506953e-46</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>2.051539775533322e-46</v>
+        <v>2.053866304066762e-46</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.056367685016247e-46</v>
+        <v>2.058664120218017e-46</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.055544090961908e-46</v>
+        <v>2.057844255025315e-46</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>2.151012755687299e-46</v>
+        <v>2.153557047991708e-46</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>2.505816667914068e-46</v>
+        <v>2.509018830848643e-46</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.953279750098335e-46</v>
+        <v>2.95725546272984e-46</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>3.291355091070089e-46</v>
+        <v>3.295874923744232e-46</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>3.338530151932842e-46</v>
+        <v>3.343058044476598e-46</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>3.129755045372791e-46</v>
+        <v>3.133853924251454e-46</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>2.829746408322935e-46</v>
+        <v>2.833321348812714e-46</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>2.603603406782495e-46</v>
+        <v>2.606901532926523e-46</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.513107755059995e-46</v>
+        <v>2.516463328127129e-46</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.450701877852358e-46</v>
+        <v>2.454120958834065e-46</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.361502181212952e-46</v>
+        <v>2.364835127805489e-46</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>2.249031388357354e-46</v>
+        <v>2.252152836880878e-46</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>2.118641432239946e-46</v>
+        <v>2.121455934437672e-46</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>1.975684245815404e-46</v>
+        <v>1.978126268853608e-46</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>1.825511762038453e-46</v>
+        <v>1.82754568850647e-46</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>1.673475913863406e-46</v>
+        <v>1.675096041773629e-46</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.524739114280518e-46</v>
+        <v>1.525968748117463e-46</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.381745543066022e-46</v>
+        <v>1.382623956950708e-46</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.244905414161517e-46</v>
+        <v>1.245478096809806e-46</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.114579892986039e-46</v>
+        <v>1.114898312468509e-46</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>9.911301449586021e-47</v>
+        <v>9.912517487005432e-47</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>8.749173354978871e-47</v>
+        <v>8.749055502793061e-47</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>7.663026300230073e-47</v>
+        <v>7.662268619786266e-47</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>6.656471939526714e-47</v>
+        <v>6.655828285719269e-47</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>5.733129885084548e-47</v>
+        <v>5.733413366811245e-47</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>4.898876223033689e-47</v>
+        <v>4.900806217214732e-47</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>4.164934899487867e-47</v>
+        <v>4.168774473151412e-47</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>3.543304659917615e-47</v>
+        <v>3.548808039816604e-47</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>3.045984249793064e-47</v>
+        <v>3.052396822405229e-47</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.683794167794331e-47</v>
+        <v>2.689883877864438e-47</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.447750812788376e-47</v>
+        <v>2.452335913431635e-47</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.312430826777e-47</v>
+        <v>2.31481797479603e-47</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.251912793945156e-47</v>
+        <v>2.251910322337523e-47</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.240275298478185e-47</v>
+        <v>2.238193216436408e-47</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.251596924561264e-47</v>
+        <v>2.24824691747281e-47</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.259956256379599e-47</v>
+        <v>2.256651685826887e-47</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.241714435881705e-47</v>
+        <v>2.240186257521346e-47</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.196486815446741e-47</v>
+        <v>2.198026968341922e-47</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>2.137467692417426e-47</v>
+        <v>2.14242889417627e-47</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>2.078021527869077e-47</v>
+        <v>2.085811006357487e-47</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>2.031512782876838e-47</v>
+        <v>2.040592276218509e-47</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>2.011239272570169e-47</v>
+        <v>2.019130734330055e-47</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>2.020263018032057e-47</v>
+        <v>2.024424845805283e-47</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>2.04047607918072e-47</v>
+        <v>2.040115355549601e-47</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>2.052074018474576e-47</v>
+        <v>2.048280849393813e-47</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>2.0481038562447e-47</v>
+        <v>2.042600128266854e-47</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>2.031014986803915e-47</v>
+        <v>2.025238933778023e-47</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>2.003471944507133e-47</v>
+        <v>1.998557201128438e-47</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.968139263709299e-47</v>
+        <v>1.964914865519252e-47</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.927681478765258e-47</v>
+        <v>1.926671862151519e-47</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.884763124029989e-47</v>
+        <v>1.886188126226424e-47</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.842034187300991e-47</v>
+        <v>1.845810738905724e-47</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.80116103611714e-47</v>
+        <v>1.807017607074405e-47</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.762218037182398e-47</v>
+        <v>1.769879868935968e-47</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.725134420053277e-47</v>
+        <v>1.734340412513957e-47</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.689839414286399e-47</v>
+        <v>1.700342125832022e-47</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.656262249438376e-47</v>
+        <v>1.667827896913803e-47</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.624332155065732e-47</v>
+        <v>1.636740613782856e-47</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.593978360725082e-47</v>
+        <v>1.607023164462824e-47</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.565130095973036e-47</v>
+        <v>1.578618436977345e-47</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.537716590366126e-47</v>
+        <v>1.551469319349982e-47</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.511667073460985e-47</v>
+        <v>1.525518699604397e-47</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.48691077481415e-47</v>
+        <v>1.500709465764157e-47</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.46337692398223e-47</v>
+        <v>1.476984505852899e-47</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.440994750521828e-47</v>
+        <v>1.454286707894257e-47</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.419693483989489e-47</v>
+        <v>1.432558959911803e-47</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.399402353941817e-47</v>
+        <v>1.41174414992917e-47</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.380050589935412e-47</v>
+        <v>1.391785165969992e-47</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.361567421526825e-47</v>
+        <v>1.372624896057844e-47</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.343882078272657e-47</v>
+        <v>1.354206228216359e-47</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.326923789729507e-47</v>
+        <v>1.336472050469165e-47</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.310621785453929e-47</v>
+        <v>1.319365250839845e-47</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.294905295002536e-47</v>
+        <v>1.302828717352043e-47</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.279703547931884e-47</v>
+        <v>1.286805338029341e-47</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.264945773798572e-47</v>
+        <v>1.271238000895369e-47</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.250561202159184e-47</v>
+        <v>1.256069593973741e-47</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.236479062570316e-47</v>
+        <v>1.241243005288082e-47</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.222628584588527e-47</v>
+        <v>1.22670112286198e-47</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.208950777818906e-47</v>
+        <v>1.212396678744054e-47</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.195452255963133e-47</v>
+        <v>1.198337227199209e-47</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.182162336361418e-47</v>
+        <v>1.184549294840835e-47</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.169110358292895e-47</v>
+        <v>1.171059426615631e-47</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.156325661036662e-47</v>
+        <v>1.157894167470266e-47</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.143837583871854e-47</v>
+        <v>1.14508006235144e-47</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.131675466077604e-47</v>
+        <v>1.132643656205854e-47</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.119868646933013e-47</v>
+        <v>1.120611493980177e-47</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.108446465717212e-47</v>
+        <v>1.10901012062111e-47</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.097438261709336e-47</v>
+        <v>1.097866081075351e-47</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.086873374188485e-47</v>
+        <v>1.087205920289572e-47</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.076781142433801e-47</v>
+        <v>1.07705618321048e-47</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.067190905724389e-47</v>
+        <v>1.067443414784749e-47</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.058132003339379e-47</v>
+        <v>1.058394159959077e-47</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.049633774557902e-47</v>
+        <v>1.049934963680161e-47</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.041725558659064e-47</v>
+        <v>1.042092370894677e-47</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.034436694921996e-47</v>
+        <v>1.034892926549321e-47</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.027796522625825e-47</v>
+        <v>1.02836317559079e-47</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.021834381049662e-47</v>
+        <v>1.022529662965761e-47</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.016579609472636e-47</v>
+        <v>1.017418933620931e-47</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.012061547173872e-47</v>
+        <v>1.013057532502994e-47</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.008309533432484e-47</v>
+        <v>1.009472004558631e-47</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.005352907527602e-47</v>
+        <v>1.006688894734538e-47</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.003221008738343e-47</v>
+        <v>1.004734747977402e-47</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.00194317634383e-47</v>
+        <v>1.003636109233913e-47</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.001548749623188e-47</v>
+        <v>1.003419523450763e-47</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.002067067855537e-47</v>
+        <v>1.00411153557464e-47</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.003527470320001e-47</v>
+        <v>1.005738690552236e-47</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.005959296295698e-47</v>
+        <v>1.008327533330238e-47</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.009391885061756e-47</v>
+        <v>1.011904608855339e-47</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.013854575897296e-47</v>
+        <v>1.016496462074228e-47</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.019376708081433e-47</v>
+        <v>1.02212963793359e-47</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.0259876208933e-47</v>
+        <v>1.028830681380124e-47</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.033716653612008e-47</v>
+        <v>1.036626137360509e-47</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.042593145516693e-47</v>
+        <v>1.045542550821448e-47</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.052661178270858e-47</v>
+        <v>1.05562203394595e-47</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.064034492124051e-47</v>
+        <v>1.066980254974344e-47</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.076847381570291e-47</v>
+        <v>1.079754586423064e-47</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.09123414408281e-47</v>
+        <v>1.094082403954443e-47</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.107329077134789e-47</v>
+        <v>1.110101083230764e-47</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.125266478199466e-47</v>
+        <v>1.127947999914368e-47</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.145180644750036e-47</v>
+        <v>1.147760529667551e-47</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.167205874259686e-47</v>
+        <v>1.169676048152603e-47</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.191476464201665e-47</v>
+        <v>1.193831931031875e-47</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.218126712049162e-47</v>
+        <v>1.220365553967659e-47</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.247290915275359e-47</v>
+        <v>1.249414292622237e-47</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.279077618826394e-47</v>
+        <v>1.281089642369398e-47</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.3131353650876e-47</v>
+        <v>1.315040813892875e-47</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.348716032335731e-47</v>
+        <v>1.350518385868421e-47</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.385058501223683e-47</v>
+        <v>1.386759874865119e-47</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.421401652404223e-47</v>
+        <v>1.423002797451927e-47</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.456984366530248e-47</v>
+        <v>1.458484670197929e-47</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.491045524254558e-47</v>
+        <v>1.492443009672111e-47</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.522824006229956e-47</v>
+        <v>1.524115332443468e-47</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.551558693109331e-47</v>
+        <v>1.552739155081074e-47</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.576488465545485e-47</v>
+        <v>1.577551994153922e-47</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.596852204191233e-47</v>
+        <v>1.597791366231014e-47</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.611888789699444e-47</v>
+        <v>1.612694787881407e-47</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.620837102722927e-47</v>
+        <v>1.621499775674101e-47</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.622936023914518e-47</v>
+        <v>1.623443846178116e-47</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.61742443392705e-47</v>
+        <v>1.617764515962477e-47</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.603968889306156e-47</v>
+        <v>1.604128598873568e-47</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.584209083968231e-47</v>
+        <v>1.58418352659338e-47</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.560353367448685e-47</v>
+        <v>1.560147542283133e-47</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.534610142362379e-47</v>
+        <v>1.534238942384733e-47</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.509187811324106e-47</v>
+        <v>1.508676023340019e-47</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.486294776948732e-47</v>
+        <v>1.485677081590898e-47</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.46813944185111e-47</v>
+        <v>1.467460413579269e-47</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.456930208646046e-47</v>
+        <v>1.456244315746984e-47</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.454872961435757e-47</v>
+        <v>1.45424455047636e-47</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.463393412357886e-47</v>
+        <v>1.462891892133114e-47</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.482036537855603e-47</v>
+        <v>1.481724769485323e-47</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.510069611395238e-47</v>
+        <v>1.510002194045775e-47</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.546759906443082e-47</v>
+        <v>1.546983177327222e-47</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.591374696465537e-47</v>
+        <v>1.591926730842523e-47</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.643181254928904e-47</v>
+        <v>1.644091866104438e-47</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.701446855299461e-47</v>
+        <v>1.702737594625702e-47</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>1.765438771043643e-47</v>
+        <v>1.767122927919212e-47</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>1.834369234996555e-47</v>
+        <v>1.836451337086186e-47</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>1.906778844575755e-47</v>
+        <v>1.909248559221424e-47</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>1.980759296061689e-47</v>
+        <v>1.9835873541672e-47</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.054394071483002e-47</v>
+        <v>2.057532192926882e-47</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.12576665286854e-47</v>
+        <v>2.129147546504034e-47</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>2.192960522246944e-47</v>
+        <v>2.196497885902018e-47</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.254059161646879e-47</v>
+        <v>2.257647682124215e-47</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.307146053097163e-47</v>
+        <v>2.310661406174168e-47</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.35030467862645e-47</v>
+        <v>2.353603529055248e-47</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.381680249009533e-47</v>
+        <v>2.384603807533782e-47</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.400296757272236e-47</v>
+        <v>2.402721418999681e-47</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.405832449786728e-47</v>
+        <v>2.407707494455297e-47</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.39798116691356e-47</v>
+        <v>2.399329657469128e-47</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.376436749013263e-47</v>
+        <v>2.377355531609653e-47</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.340893036446415e-47</v>
+        <v>2.341552740445399e-47</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.29104413763334e-47</v>
+        <v>2.291689148781996e-47</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.227019089195305e-47</v>
+        <v>2.227924029781837e-47</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.150266297525216e-47</v>
+        <v>2.15160400742327e-47</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.062483411010135e-47</v>
+        <v>2.064300007992803e-47</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>1.965368078041266e-47</v>
+        <v>1.967582957791023e-47</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>1.860628637367429e-47</v>
+        <v>1.863061407889207e-47</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>1.750015272668234e-47</v>
+        <v>1.752491182817014e-47</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>1.635288404621573e-47</v>
+        <v>1.637664136273309e-47</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.518208453904934e-47</v>
+        <v>1.520372121956553e-47</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.400535841196113e-47</v>
+        <v>1.402406993565516e-47</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.284030987172808e-47</v>
+        <v>1.285560604798869e-47</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.170454312512812e-47</v>
+        <v>1.171624809355379e-47</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.061566237893617e-47</v>
+        <v>1.062391460933511e-47</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>9.591271839931106e-48</v>
+        <v>9.596524132321256e-48</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>8.646492818271275e-48</v>
+        <v>8.649464870047763e-48</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>7.782149840969194e-48</v>
+        <v>7.783555123602876e-48</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>6.993960701829239e-48</v>
+        <v>6.994408902708407e-48</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>6.277636821253222e-48</v>
+        <v>6.277633721927246e-48</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>5.628889619645117e-48</v>
+        <v>5.628837095824467e-48</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>5.043430517408662e-48</v>
+        <v>5.043626538964879e-48</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>4.51697093494603e-48</v>
+        <v>4.517609565911752e-48</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>4.045222292661013e-48</v>
+        <v>4.046393691229958e-48</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>3.623900675487177e-48</v>
+        <v>3.625591487790326e-48</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.24917443651584e-48</v>
+        <v>3.251305976765497e-48</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>2.918035646862256e-48</v>
+        <v>2.920533435019351e-48</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>2.62756381119373e-48</v>
+        <v>2.630364954043842e-48</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>2.374838434178482e-48</v>
+        <v>2.377891625331832e-48</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>2.156939020484591e-48</v>
+        <v>2.160204540376048e-48</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>1.970945074779567e-48</v>
+        <v>1.974394790668645e-48</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>1.813936101731521e-48</v>
+        <v>1.817553467702381e-48</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>1.68299160600846e-48</v>
+        <v>1.68677166296991e-48</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>1.575173365328344e-48</v>
+        <v>1.579121828239318e-48</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>1.487122839753275e-48</v>
+        <v>1.491234455137704e-48</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.415054051440461e-48</v>
+        <v>1.419290588274958e-48</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.355161871421524e-48</v>
+        <v>1.359451135028948e-48</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.303641170728329e-48</v>
+        <v>1.307877002777786e-48</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.256686820392534e-48</v>
+        <v>1.260729098899374e-48</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.210493691445939e-48</v>
+        <v>1.214168330771759e-48</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.161256654920339e-48</v>
+        <v>1.164355605772982e-48</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.105170581847397e-48</v>
+        <v>1.107451831280951e-48</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.040557116951705e-48</v>
+        <v>1.041807729288673e-48</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>9.749238876052868e-49</v>
+        <v>9.752322914312423e-49</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>9.182580675557406e-49</v>
+        <v>9.180875533794734e-49</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>8.803670898815173e-49</v>
+        <v>8.805458467243387e-49</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>8.594541612089313e-49</v>
+        <v>8.605320935244465e-49</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>8.380211976648646e-49</v>
+        <v>8.394226588799489e-49</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>8.146574054497144e-49</v>
+        <v>8.157200433913235e-49</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>7.949390743972353e-49</v>
+        <v>7.953590881961641e-49</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>7.844593891448616e-49</v>
+        <v>7.842926058691911e-49</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>7.885365527683547e-49</v>
+        <v>7.881865299323949e-49</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>8.061356749018487e-49</v>
+        <v>8.060788243182304e-49</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>8.298528881660697e-49</v>
+        <v>8.303629125711979e-49</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>8.520061668994456e-49</v>
+        <v>8.531420250168442e-49</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>8.649134854404773e-49</v>
+        <v>8.665193919807914e-49</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>8.608969136762047e-49</v>
+        <v>8.626024432421076e-49</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>8.365351562418765e-49</v>
+        <v>8.378632350262885e-49</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>8.007130685848598e-49</v>
+        <v>8.013921839457283e-49</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>7.645264096792061e-49</v>
+        <v>7.645467012162758e-49</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>7.38586584524997e-49</v>
+        <v>7.381896381443303e-49</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>7.2441753453705e-49</v>
+        <v>7.239048983877298e-49</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>7.154680989821246e-49</v>
+        <v>7.150311310967568e-49</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>7.049061212730942e-49</v>
+        <v>7.046200686386768e-49</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>6.872655115410216e-49</v>
+        <v>6.871114605159347e-49</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>6.628629903863231e-49</v>
+        <v>6.628207868333465e-49</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>6.335452050926395e-49</v>
+        <v>6.336180377526756e-49</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>6.011588126823876e-49</v>
+        <v>6.013732133309447e-49</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>5.675504701779947e-49</v>
+        <v>5.679563136251876e-49</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>5.345667359092408e-49</v>
+        <v>5.352372345358651e-49</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>5.037003019659536e-49</v>
+        <v>5.047124145915916e-49</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>4.752949023709688e-49</v>
+        <v>4.766657243740871e-49</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>4.494614893648889e-49</v>
+        <v>4.511353651618479e-49</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>4.263110151883949e-49</v>
+        <v>4.281595382334472e-49</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>4.059544320821574e-49</v>
+        <v>4.077764448674492e-49</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.885026922867937e-49</v>
+        <v>3.90024286342364e-49</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.740667366858568e-49</v>
+        <v>3.749412571941548e-49</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.62227969693011e-49</v>
+        <v>3.62251110650281e-49</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>3.513468760665571e-49</v>
+        <v>3.509295388520074e-49</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.411653203737391e-49</v>
+        <v>3.407142253571954e-49</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.317068060063879e-49</v>
+        <v>3.315011112603988e-49</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.229948363563093e-49</v>
+        <v>3.231861376561474e-49</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.150529148153419e-49</v>
+        <v>3.156652456390031e-49</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.078884564051594e-49</v>
+        <v>3.088376883343547e-49</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.014325978797063e-49</v>
+        <v>3.026184218862742e-49</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.955938926653496e-49</v>
+        <v>2.969270515535114e-49</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>2.902808907216796e-49</v>
+        <v>2.916831833084851e-49</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>2.854021420083023e-49</v>
+        <v>2.868064231236301e-49</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>2.808661964848226e-49</v>
+        <v>2.822163769713795e-49</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>2.765816041108328e-49</v>
+        <v>2.778326508241542e-49</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>2.724569148459379e-49</v>
+        <v>2.735748506543878e-49</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>2.684006786497423e-49</v>
+        <v>2.693625824345132e-49</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>2.643214454818394e-49</v>
+        <v>2.651154521369521e-49</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>2.601277653018375e-49</v>
+        <v>2.607530657341416e-49</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>2.557283746055783e-49</v>
+        <v>2.56195197796463e-49</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>2.510678549775988e-49</v>
+        <v>2.513940209342225e-49</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>2.461690179550925e-49</v>
+        <v>2.463724147142894e-49</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>2.410649948072069e-49</v>
+        <v>2.411625860367874e-49</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>2.357889168031026e-49</v>
+        <v>2.357967418018531e-49</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.303739152119408e-49</v>
+        <v>2.303070889096242e-49</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.24853121302868e-49</v>
+        <v>2.247258342602232e-49</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.192596663450451e-49</v>
+        <v>2.190851847537876e-49</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.136266816076337e-49</v>
+        <v>2.134173472904548e-49</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.079872983597797e-49</v>
+        <v>2.077545287703471e-49</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.023746478706496e-49</v>
+        <v>2.021289360936072e-49</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.968218614093895e-49</v>
+        <v>1.965727761603574e-49</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.913620702451607e-49</v>
+        <v>1.911182558707353e-49</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.860284056471241e-49</v>
+        <v>1.85797582124878e-49</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.808539988844265e-49</v>
+        <v>1.806429618229085e-49</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.75871981226229e-49</v>
+        <v>1.75686601864964e-49</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.71115483941692e-49</v>
+        <v>1.709607091511813e-49</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.666176382999632e-49</v>
+        <v>1.664974905816842e-49</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.624115755702032e-49</v>
+        <v>1.623291530566097e-49</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.585242161613898e-49</v>
+        <v>1.584816083257241e-49</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.549538333940827e-49</v>
+        <v>1.549517322687283e-49</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.516904466754608e-49</v>
+        <v>1.517280348346229e-49</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.487240746462899e-49</v>
+        <v>1.487990251955945e-49</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.460447359473451e-49</v>
+        <v>1.461532125238388e-49</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.436424492193979e-49</v>
+        <v>1.43779105991548e-49</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.415072331032221e-49</v>
+        <v>1.416652147709166e-49</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.396291062395855e-49</v>
+        <v>1.39800048034133e-49</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.379980872692634e-49</v>
+        <v>1.381721149533932e-49</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>1.366041948330246e-49</v>
+        <v>1.367699247008868e-49</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>1.354374475716425e-49</v>
+        <v>1.355819864488076e-49</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>1.344878641258896e-49</v>
+        <v>1.34596809369349e-49</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>1.33745463136536e-49</v>
+        <v>1.338029026347017e-49</v>
       </c>
     </row>
   </sheetData>
